--- a/purchase_list/Spring_2024/robotic_dog_purchase_list.xlsx
+++ b/purchase_list/Spring_2024/robotic_dog_purchase_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artorias961\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artorias961\Desktop\Notas\Project\Robotics Dog\purchase_list\Spring_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47967FA-0EAD-40DD-883B-5A91E39D2853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245DA355-8C8E-461D-8AE3-ABFDCDAFC836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase List" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Line Item</t>
   </si>
@@ -92,18 +92,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Kingston NV2 1TB M.2 2280</t>
-  </si>
-  <si>
-    <t>NVMe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Kingston-2280-Internal-SNV2S-1000G/dp/B0BBWH1R8H/ref=sr_1_3?crid=3K7ALU67L5A5U&amp;dib=eyJ2IjoiMSJ9.zyXg4q_PRldpIYtv7SHetwI6hYecu2agwuQ-DvOWyKPbaDG8Z6izirwYmnOQif_eyF-yFSPZSKZ1HHSKQ4QziM7OG1rbG0OtLzpPJxKkislRmRwLsT3THMVU78y8w0FxQcwdrJfWBRlG7--4gJxeXmgsKyEk2go7j_oPOOPewFETqb2vcyLApkwqnBNqxPw_q6GYwEOvfWMmjOPKAq62RgZGaQil3gm9oBxAvH4WVoB_kr6UdkaF0j04QFQ6hC1WTETlu6ZJgji-zJqangAYJ-z476omXia_tqqW50-_4ss.XndhrgNK0XOaTvUMWpEKfhMqxBrbvf8EMtCmcukIY5A&amp;dib_tag=se&amp;keywords=M.2%2B2280&amp;qid=1711356271&amp;s=electronics&amp;sprefix=m.2%2B2280%2Celectronics%2C206&amp;sr=1-3&amp;th=1 </t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -113,19 +101,19 @@
     <t>The Grand Total:</t>
   </si>
   <si>
-    <t>LattePanda Sigma - x86 Windows / Linux Single Board Computer Server (32GB RAM)</t>
-  </si>
-  <si>
-    <t>DFRobot</t>
-  </si>
-  <si>
-    <t>https://www.dfrobot.com/product-2720.html</t>
-  </si>
-  <si>
-    <t>RCBattery</t>
-  </si>
-  <si>
     <t>LiperiAir 9500mAh 4S 100C 14.8V Lipo Battery With EC5 Plug for RC Plane / Car / Boat / Drone</t>
+  </si>
+  <si>
+    <t>RCBatteries</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>LattePanda Sigma - x86 Windows / Linux Single Board Computer Server (32GB RAM, 500GB, WiFi 6E)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/LattePanda-Sigma-Windows-Single-Computer/dp/B0CKRLNBZF/?th=1</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1177,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,36 +1250,36 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>629.99</v>
+        <v>718.99</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="1">
         <f>E2*10.25%</f>
-        <v>64.57397499999999</v>
+        <v>73.696474999999992</v>
       </c>
       <c r="I2" s="1">
         <f>E2+G2</f>
-        <v>694.56397500000003</v>
+        <v>792.68647499999997</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1303,79 +1291,44 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>60.99</v>
+        <v>92.99</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G4" si="0">E3*10.25%</f>
-        <v>6.2514750000000001</v>
+        <f>(E3*Table2[[#This Row],[Order Qty]])*10.25%</f>
+        <v>19.062949999999997</v>
       </c>
       <c r="I3" s="1">
-        <f>E3+G3</f>
-        <v>67.241475000000008</v>
+        <f>(E3*Table2[[#This Row],[Order Qty]])+G3</f>
+        <v>205.04294999999999</v>
       </c>
       <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <f t="shared" ref="A4" si="1">1+A3</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>92.99</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <f>(E4*Table2[[#This Row],[Order Qty]])*10.25%</f>
-        <v>19.062949999999997</v>
-      </c>
-      <c r="I4" s="1">
-        <f>(E4*Table2[[#This Row],[Order Qty]])+G4</f>
-        <v>205.04294999999999</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
@@ -1415,11 +1368,11 @@
     </row>
     <row r="12" spans="1:14" s="7" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8">
         <f>SUM(I2:I11)</f>
-        <v>966.84840000000008</v>
+        <v>997.72942499999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1437,7 +1390,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" display="https://www.amazon.com/Kingston-2280-Internal-SNV2S-1000G/dp/B0BBWH1R8H/ref=sr_1_3?crid=3K7ALU67L5A5U&amp;dib=eyJ2IjoiMSJ9.zyXg4q_PRldpIYtv7SHetwI6hYecu2agwuQ-DvOWyKPbaDG8Z6izirwYmnOQif_eyF-yFSPZSKZ1HHSKQ4QziM7OG1rbG0OtLzpPJxKkislRmRwLsT3THMVU78y8w0FxQcwdrJfWBRlG7--4gJxeXmgsKyEk2go7j_oPOOPewFETqb2vcyLApkwqnBNqxPw_q6GYwEOvfWMmjOPKAq62RgZGaQil3gm9oBxAvH4WVoB_kr6UdkaF0j04QFQ6hC1WTETlu6ZJgji-zJqangAYJ-z476omXia_tqqW50-_4ss.XndhrgNK0XOaTvUMWpEKfhMqxBrbvf8EMtCmcukIY5A&amp;dib_tag=se&amp;keywords=M.2%2B2280&amp;qid=1711356271&amp;s=electronics&amp;sprefix=m.2%2B2280%2Celectronics%2C206&amp;sr=1-3&amp;th=1 " xr:uid="{1E9B0B5E-E938-472C-B6D2-8E0368897375}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{1B5A4498-C29A-4476-B21F-074AC4847A24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1448,6 +1401,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d6ba15f-6029-4b30-86a4-12fa7fa2c2b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEAF2A1D7754A34BB2A1EF101337FE74" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9021d95744b713efa6b61b14c9435f69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d6ba15f-6029-4b30-86a4-12fa7fa2c2b2" xmlns:ns3="85e1d668-6ce3-495d-8139-16f6a2da2a91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc036acb73cae23ed794c75b41d5acd1" ns2:_="" ns3:_="">
     <xsd:import namespace="0d6ba15f-6029-4b30-86a4-12fa7fa2c2b2"/>
@@ -1670,26 +1642,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30842571-5353-470A-9063-08C7791184D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d6ba15f-6029-4b30-86a4-12fa7fa2c2b2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d6ba15f-6029-4b30-86a4-12fa7fa2c2b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41BADD5F-F587-4A29-BF0D-E7C03180C6E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59787F25-5A8B-4897-A4F9-020D069BB930}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1706,22 +1677,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41BADD5F-F587-4A29-BF0D-E7C03180C6E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30842571-5353-470A-9063-08C7791184D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d6ba15f-6029-4b30-86a4-12fa7fa2c2b2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>